--- a/medicine/Enfance/Claire_d'Harcourt/Claire_d'Harcourt.xlsx
+++ b/medicine/Enfance/Claire_d'Harcourt/Claire_d'Harcourt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Claire_d%27Harcourt</t>
+          <t>Claire_d'Harcourt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claire (Claire, Anne, Françoise) d'Harcourt, née le 12 juillet 1960[1], est une femme de lettres française, auteur de livres pour enfants et pour adultes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claire (Claire, Anne, Françoise) d'Harcourt, née le 12 juillet 1960, est une femme de lettres française, auteur de livres pour enfants et pour adultes.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Claire_d%27Harcourt</t>
+          <t>Claire_d'Harcourt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Claire d'Harcourt, fille du comte Arnoult d'Harcourt et de sa cousine Jeanne-Marie d'Harcourt, a créé les éditions Le Funambule[2], qui coéditent avec Le Seuil des ouvrages pour la jeunesse, parmi lesquels Du Coq à l'Ane, Des Larmes aux Rires et la collection « A la loupe », consacrée à l'histoire de l'art et à la vie quotidienne. Nommée chevalier des Arts et Lettres en 2005, elle est l'épouse de Dominique du Peloux de Saint-Romain.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Claire d'Harcourt, fille du comte Arnoult d'Harcourt et de sa cousine Jeanne-Marie d'Harcourt, a créé les éditions Le Funambule, qui coéditent avec Le Seuil des ouvrages pour la jeunesse, parmi lesquels Du Coq à l'Ane, Des Larmes aux Rires et la collection « A la loupe », consacrée à l'histoire de l'art et à la vie quotidienne. Nommée chevalier des Arts et Lettres en 2005, elle est l'épouse de Dominique du Peloux de Saint-Romain.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Claire_d%27Harcourt</t>
+          <t>Claire_d'Harcourt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Travail des sculpteurs, avec Béatrice Fontanel, Gallimard Jeunesse, 1993.
 L'Épopée des bébés, avec Béatrice Fontanel, La Martinière, 1999, 2010.
